--- a/waqwaq.xlsx
+++ b/waqwaq.xlsx
@@ -8,6 +8,7 @@
   </bookViews>
   <sheets>
     <sheet name="Next49" sheetId="1" r:id="rId1"/>
+    <sheet name="Next49_c" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -143,10 +144,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Next49!$A$2:$A$18</c:f>
+              <c:f>Next49!$A$2:$A$19</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="17"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
                   <c:v>40786.2708333333</c:v>
                 </c:pt>
@@ -197,16 +198,19 @@
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>41600.2472222222</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>41889.7241279973</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Next49!$E$2:$E$18</c:f>
+              <c:f>Next49!$E$2:$E$19</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="17"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
                   <c:v>5</c:v>
                 </c:pt>
@@ -296,33 +300,31 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
   </c:chart>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
 </c:chartSpace>
+</file>
+
+<file path=xl/chartsheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</chartsheet>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:to>
+  <xdr:absoluteAnchor>
+    <xdr:pos x="0" y="0"/>
+    <xdr:ext cx="9308969" cy="6078325"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1"/>
-        <xdr:cNvGraphicFramePr/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks noGrp="1"/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -335,7 +337,7 @@
       </a:graphic>
     </xdr:graphicFrame>
     <xdr:clientData/>
-  </xdr:twoCellAnchor>
+  </xdr:absoluteAnchor>
 </xdr:wsDr>
 </file>
 
@@ -624,7 +626,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E18"/>
+  <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -936,8 +938,12 @@
         <v>41</v>
       </c>
     </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="1">
+        <v>41889.7241279973</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>